--- a/biology/Médecine/Prix_Fondation_ARC_Léopold-Griffuel/Prix_Fondation_ARC_Léopold-Griffuel.xlsx
+++ b/biology/Médecine/Prix_Fondation_ARC_Léopold-Griffuel/Prix_Fondation_ARC_Léopold-Griffuel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Prix_Fondation_ARC_L%C3%A9opold-Griffuel</t>
+          <t>Prix_Fondation_ARC_Léopold-Griffuel</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le prix Léopold-Griffuel, devenu prix Fondation ARC Léopold-Griffuel a été créé en 1970 par l'Association pour la recherche sur le cancer, devenue en 2012 la Fondation ARC pour la recherche sur le cancer.
-Ce prix prestigieux[1] récompense, conformément aux dispositions testamentaires de l'épouse de Léopold Griffuel, une ou des découvertes majeures en cancérologie. Il est décerné chaque année à un chercheur de renommée internationale dont les travaux ont abouti à une avancée importante dans la recherche sur le cancer. Le Prix est réparti en deux catégories : un prix de recherche fondamentale et un prix de recherche translationnelle et clinique.
+Ce prix prestigieux récompense, conformément aux dispositions testamentaires de l'épouse de Léopold Griffuel, une ou des découvertes majeures en cancérologie. Il est décerné chaque année à un chercheur de renommée internationale dont les travaux ont abouti à une avancée importante dans la recherche sur le cancer. Le Prix est réparti en deux catégories : un prix de recherche fondamentale et un prix de recherche translationnelle et clinique.
 D’un montant de 300 000 euros au total, il est l’un des plus importants prix dans le domaine de la recherche sur le cancer.
 Depuis sa création, 62 chercheurs ont été récompensés, tous issus des plus prestigieuses institutions pour leurs contributions majeures à la compréhension des processus tumoraux, la génétique des cancers, la mise au point de thérapies anticancéreuses... 
 </t>
